--- a/dados/eleicao2012.xlsx
+++ b/dados/eleicao2012.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderson\Desktop\Data Visualization\eleicao-angola\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderson\Desktop\Data Visualization\eleicoes-angola\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78FAD1-ABAE-4F21-916E-FA2B4B6DEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D2DCD-C5B7-4FC3-88B5-A3C92BC1C672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eleicaoGeral2012" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Partidos</t>
   </si>
@@ -143,21 +143,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -165,25 +159,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,8 +172,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -885,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="O13" sqref="O13:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,51 +1473,6 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/dados/eleicao2012.xlsx
+++ b/dados/eleicao2012.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderson\Desktop\Data Visualization\eleicoes-angola\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderson\Desktop\Data Visualization\eleicao-app\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D2DCD-C5B7-4FC3-88B5-A3C92BC1C672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84C94E0-F44B-4465-A677-3FBF1890DB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,11 +164,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -177,390 +174,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -574,30 +188,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EDE2A7-683A-4ED8-A0CF-66E5484179AC}" name="Table1" displayName="Table1" ref="A1:S10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" dataCellStyle="Comma">
-  <autoFilter ref="A1:S10" xr:uid="{03EDE2A7-683A-4ED8-A0CF-66E5484179AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EDE2A7-683A-4ED8-A0CF-66E5484179AC}" name="Table1" displayName="Table1" ref="A1:S10" totalsRowShown="0">
+  <autoFilter ref="A1:S10" xr:uid="{03EDE2A7-683A-4ED8-A0CF-66E5484179AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{1DF684CC-AB01-4C31-8225-97413A553161}" name="Partidos"/>
-    <tableColumn id="2" xr3:uid="{3A61849B-18D5-4433-8084-3AED743CDF04}" name="Cabinda" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{D74AD480-7987-48F0-BC5D-0E51518D97E5}" name="zaire" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{66D3B5DC-0C7F-41AC-827C-447E84E7F438}" name="Uige" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{B45F7C7C-1566-44D4-9D7C-78E238F23BD9}" name="Bengo" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F0FA4C29-2183-4106-A15E-995D934DF439}" name="Luanda" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{C4E4ED00-4AB3-4F12-9AE9-C0CF19FA3908}" name="Kwnza Norte" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{4E5F2ED4-8829-4CB6-9CEE-00FF6BF83526}" name="Malanje" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{FF8709F7-E7D7-42A9-AEC6-B2A224CC9ED6}" name="Lunda Sul" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{5A2188AD-2ED7-4467-8FC6-7BB0E88116C6}" name="Benguela" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{92712A1C-69B4-4C13-8614-FE46776D50E1}" name="Cunene" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{B7A7D6B1-E463-4129-A3B5-E681F940C575}" name="cuando cubango" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{5CADFBD3-7BF9-4B46-83C5-8B54AB582ACE}" name="Huila" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{C217B525-49F9-4187-9BB5-5E7AC7F6810D}" name="Namibe" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{43726558-2F56-4BB1-9787-B5C399667C9A}" name="Bie" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{2FF681AF-DAB4-462F-ACE2-20FCFA22E36C}" name="Moxico" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{7B70CB78-7ED4-4541-889A-859CCEB98D00}" name="Huambo" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{6FEFE83E-49F4-4E7A-992D-18AB43AD353C}" name="cuanza sul" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{D669556F-E533-48CE-9727-6BDE09A7D9C7}" name="Lunda Norte" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3A61849B-18D5-4433-8084-3AED743CDF04}" name="Cabinda"/>
+    <tableColumn id="3" xr3:uid="{D74AD480-7987-48F0-BC5D-0E51518D97E5}" name="zaire"/>
+    <tableColumn id="4" xr3:uid="{66D3B5DC-0C7F-41AC-827C-447E84E7F438}" name="Uige"/>
+    <tableColumn id="5" xr3:uid="{B45F7C7C-1566-44D4-9D7C-78E238F23BD9}" name="Bengo"/>
+    <tableColumn id="6" xr3:uid="{F0FA4C29-2183-4106-A15E-995D934DF439}" name="Luanda"/>
+    <tableColumn id="7" xr3:uid="{C4E4ED00-4AB3-4F12-9AE9-C0CF19FA3908}" name="Kwnza Norte"/>
+    <tableColumn id="8" xr3:uid="{4E5F2ED4-8829-4CB6-9CEE-00FF6BF83526}" name="Malanje"/>
+    <tableColumn id="9" xr3:uid="{FF8709F7-E7D7-42A9-AEC6-B2A224CC9ED6}" name="Lunda Sul"/>
+    <tableColumn id="10" xr3:uid="{5A2188AD-2ED7-4467-8FC6-7BB0E88116C6}" name="Benguela"/>
+    <tableColumn id="11" xr3:uid="{92712A1C-69B4-4C13-8614-FE46776D50E1}" name="Cunene"/>
+    <tableColumn id="12" xr3:uid="{B7A7D6B1-E463-4129-A3B5-E681F940C575}" name="cuando cubango"/>
+    <tableColumn id="13" xr3:uid="{5CADFBD3-7BF9-4B46-83C5-8B54AB582ACE}" name="Huila"/>
+    <tableColumn id="14" xr3:uid="{C217B525-49F9-4187-9BB5-5E7AC7F6810D}" name="Namibe"/>
+    <tableColumn id="15" xr3:uid="{43726558-2F56-4BB1-9787-B5C399667C9A}" name="Bie"/>
+    <tableColumn id="16" xr3:uid="{2FF681AF-DAB4-462F-ACE2-20FCFA22E36C}" name="Moxico"/>
+    <tableColumn id="17" xr3:uid="{7B70CB78-7ED4-4541-889A-859CCEB98D00}" name="Huambo"/>
+    <tableColumn id="18" xr3:uid="{6FEFE83E-49F4-4E7A-992D-18AB43AD353C}" name="cuanza sul"/>
+    <tableColumn id="19" xr3:uid="{D669556F-E533-48CE-9727-6BDE09A7D9C7}" name="Lunda Norte"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -866,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,58 +518,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -943,58 +577,58 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>69226</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>77751</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>289643</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>56650</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>940785</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>94389</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>169505</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>66227</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>430449</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>161598</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>84746</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>447523</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>89510</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>201421</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>134691</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>334134</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>325134</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>153120</v>
       </c>
     </row>
@@ -1002,58 +636,58 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>28513</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>28936</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>37028</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>9912</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>391882</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>5275</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>11585</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>15849</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>120757</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>8461</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>20134</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>48300</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>5546</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>120015</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>17123</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>137402</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>41412</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>27798</v>
       </c>
     </row>
@@ -1061,58 +695,58 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>16222</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>9434</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>8266</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>2606</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>203212</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>3912</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>6898</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>1174</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>27424</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>2631</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>1332</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>25976</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>7742</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>3245</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>1907</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>9834</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>8563</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>3849</v>
       </c>
     </row>
@@ -1120,58 +754,58 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>856</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>3631</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>7109</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1350</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>18766</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>1760</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>2421</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>1312</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>4654</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>886</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>898</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>5428</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>564</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>3210</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>1546</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>3942</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>3906</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>2924</v>
       </c>
     </row>
@@ -1179,58 +813,58 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1302</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>2012</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>4597</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>435</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>12572</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>886</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>2805</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>27680</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>3255</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>688</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>952</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>3577</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>586</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>1856</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>9236</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>2448</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>2104</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>21242</v>
       </c>
     </row>
@@ -1238,58 +872,58 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>129</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>595</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>1005</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>204</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>4800</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>307</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>539</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>324</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>804</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>1053</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>561</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>310</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>642</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>669</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>631</v>
       </c>
     </row>
@@ -1297,58 +931,58 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>114</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>426</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>990</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>91</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>3159</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>137</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>232</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>116</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>523</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>105</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>122</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>614</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>61</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>455</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>221</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>536</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>538</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>270</v>
       </c>
     </row>
@@ -1356,58 +990,58 @@
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>101</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>355</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>62</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>3122</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>129</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>286</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>397</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>561</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>79</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>91</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>558</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>55</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>379</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>169</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>456</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9">
         <v>354</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9">
         <v>910</v>
       </c>
     </row>
@@ -1415,63 +1049,63 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>69</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>137</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>367</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>40</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>3645</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>93</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>153</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>79</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>432</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>62</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>49</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>386</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>61</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>243</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>98</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>260</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>281</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
